--- a/Horários-Esportes.xlsx
+++ b/Horários-Esportes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="13395" windowHeight="12600"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="13395" windowHeight="12600" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Atletismo" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="193">
   <si>
     <t>Segunda, das 9h às 10h30</t>
   </si>
@@ -595,7 +595,7 @@
     <t>Dias da Semana</t>
   </si>
   <si>
-    <t xml:space="preserve">Total Geral: </t>
+    <t>Total Geral:</t>
   </si>
 </sst>
 </file>
@@ -603,9 +603,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
+    <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -648,21 +648,35 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="26"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="23"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="30"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="35"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -723,8 +737,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1018,11 +1044,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="8" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="8" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1045,15 +1091,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1073,80 +1110,32 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1156,23 +1145,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1189,13 +1163,97 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1203,64 +1261,156 @@
   </cellStyles>
   <dxfs count="126">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="8" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8" tint="-0.249977111117893"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="8" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="8" tint="-0.249977111117893"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="8" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="8" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8" tint="-0.249977111117893"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="8" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="8" tint="-0.249977111117893"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="8" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="8" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1275,22 +1425,120 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
-          <color theme="8" tint="-0.249977111117893"/>
+          <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
-          <color theme="8" tint="-0.249977111117893"/>
+          <color indexed="64"/>
         </top>
         <bottom style="thin">
-          <color theme="8" tint="-0.249977111117893"/>
+          <color indexed="64"/>
         </bottom>
-      </border>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
+        <right style="thin">
+          <color theme="8" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="8" tint="-0.249977111117893"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="8" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="8" tint="-0.249977111117893"/>
+        </left>
         <right style="thin">
           <color theme="8" tint="-0.249977111117893"/>
         </right>
@@ -1322,193 +1570,7 @@
       </fill>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="8" tint="-0.249977111117893"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="8" tint="-0.249977111117893"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="8" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="-0.249977111117893"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="-0.249977111117893"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="8" tint="-0.249977111117893"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="-0.249977111117893"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="-0.249977111117893"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="8" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="-0.249977111117893"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="-0.249977111117893"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="8" tint="-0.249977111117893"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="8" tint="-0.249977111117893"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="8" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="-0.249977111117893"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="-0.249977111117893"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="8" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="-0.249977111117893"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="-0.249977111117893"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="8" tint="-0.249977111117893"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="8" tint="-0.249977111117893"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="-0.249977111117893"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="-0.249977111117893"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="8" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="-0.249977111117893"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="-0.249977111117893"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="8" tint="-0.249977111117893"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="8" tint="-0.249977111117893"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="8" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="-0.249977111117893"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="-0.249977111117893"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
+      <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1523,50 +1585,6 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <right style="medium">
-          <color rgb="FFCCCCCC"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1586,6 +1604,13 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1616,7 +1641,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="170" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
+      <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1634,10 +1659,44 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="medium">
+          <color rgb="FFCCCCCC"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
       </border>
     </dxf>
     <dxf>
@@ -1657,6 +1716,13 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1687,7 +1753,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="170" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
+      <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1702,13 +1768,6 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1728,6 +1787,13 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1758,6 +1824,15 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FFCCCCCC"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border outline="0">
         <left style="medium">
@@ -1769,20 +1844,18 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="170" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border outline="0">
-        <left style="medium">
-          <color rgb="FFCCCCCC"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border outline="0">
         <right style="medium">
           <color rgb="FFCCCCCC"/>
         </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
       </border>
     </dxf>
     <dxf>
@@ -1802,6 +1875,13 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1832,21 +1912,7 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
+      <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1866,6 +1932,13 @@
         <right style="medium">
           <color rgb="FFCCCCCC"/>
         </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
       </border>
     </dxf>
     <dxf>
@@ -1885,13 +1958,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
     </dxf>
     <dxf>
       <border>
@@ -1934,7 +2000,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="170" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
+      <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1942,13 +2008,6 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1968,6 +2027,13 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2003,7 +2069,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="170" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
+      <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2011,6 +2077,38 @@
         <right style="medium">
           <color rgb="FFCCCCCC"/>
         </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -2031,18 +2129,18 @@
       </font>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
-          <color theme="8" tint="-0.249977111117893"/>
+          <color indexed="64"/>
         </left>
         <right style="thin">
-          <color theme="8" tint="-0.249977111117893"/>
+          <color indexed="64"/>
         </right>
         <top/>
         <bottom/>
         <vertical style="thin">
-          <color theme="8" tint="-0.249977111117893"/>
+          <color indexed="64"/>
         </vertical>
         <horizontal style="thin">
-          <color theme="8" tint="-0.249977111117893"/>
+          <color indexed="64"/>
         </horizontal>
       </border>
     </dxf>
@@ -2062,7 +2160,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="170" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
+      <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -2163,69 +2261,27 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border>
         <bottom style="thin">
           <color theme="8" tint="-0.249977111117893"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="8" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="-0.249977111117893"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="-0.249977111117893"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <right style="medium">
-          <color rgb="FFCCCCCC"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2245,19 +2301,29 @@
       </font>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
-          <color indexed="64"/>
+          <color theme="8" tint="-0.249977111117893"/>
         </left>
         <right style="thin">
-          <color indexed="64"/>
+          <color theme="8" tint="-0.249977111117893"/>
         </right>
         <top/>
         <bottom/>
         <vertical style="thin">
-          <color indexed="64"/>
+          <color theme="8" tint="-0.249977111117893"/>
         </vertical>
         <horizontal style="thin">
-          <color indexed="64"/>
+          <color theme="8" tint="-0.249977111117893"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="medium">
+          <color rgb="FFCCCCCC"/>
+        </right>
       </border>
     </dxf>
     <dxf>
@@ -2265,13 +2331,6 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -2291,6 +2350,13 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2326,7 +2392,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="170" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
+      <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2341,13 +2407,6 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -2367,6 +2426,13 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2402,67 +2468,21 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="170" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
+      <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="medium">
+          <color rgb="FFCCCCCC"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -2482,6 +2502,13 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2517,7 +2544,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="170" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
+      <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2535,7 +2562,16 @@
       </border>
     </dxf>
     <dxf>
-      <border>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -2558,6 +2594,13 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2593,35 +2636,32 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="170" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <right style="medium">
-          <color rgb="FFCCCCCC"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
+      <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -2631,6 +2671,32 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -2685,7 +2751,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="170" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
+      <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border>
         <left style="thin">
@@ -2747,13 +2813,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2786,6 +2845,13 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2880,39 +2946,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -2959,13 +2992,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2999,6 +3025,46 @@
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -3015,10 +3081,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="B3:D5" totalsRowShown="0" headerRowDxfId="120" dataDxfId="125" headerRowBorderDxfId="123" tableBorderDxfId="124" totalsRowBorderDxfId="122">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="B3:D5" totalsRowShown="0" headerRowDxfId="125" dataDxfId="123" headerRowBorderDxfId="124" tableBorderDxfId="122" totalsRowBorderDxfId="121">
   <autoFilter ref="B3:D5"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Nome:" dataDxfId="121"/>
+    <tableColumn id="1" name="Nome:" dataDxfId="120"/>
     <tableColumn id="2" name="Endereço de E-mail:" dataDxfId="119"/>
     <tableColumn id="3" name="Telefone de contato:" dataDxfId="118"/>
   </tableColumns>
@@ -3027,18 +3093,18 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="Tabela2730" displayName="Tabela2730" ref="F25:G31" totalsRowShown="0" headerRowBorderDxfId="15" tableBorderDxfId="16" totalsRowBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="Tabela2730" displayName="Tabela2730" ref="F25:G31" totalsRowShown="0" headerRowBorderDxfId="10" tableBorderDxfId="11" totalsRowBorderDxfId="9">
   <autoFilter ref="F25:G31"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Dias da Semana" dataDxfId="13"/>
-    <tableColumn id="2" name="Total de Pessoas" dataDxfId="12"/>
+    <tableColumn id="1" name="Dias da Semana" dataDxfId="8"/>
+    <tableColumn id="2" name="Total de Pessoas" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Tabela31013141517" displayName="Tabela31013141517" ref="B3:D9" totalsRowShown="0" headerRowDxfId="85" dataDxfId="84" headerRowBorderDxfId="83" totalsRowBorderDxfId="82">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Tabela31013141517" displayName="Tabela31013141517" ref="B3:D9" totalsRowShown="0" headerRowDxfId="72" dataDxfId="70" headerRowBorderDxfId="71" totalsRowBorderDxfId="69">
   <autoFilter ref="B3:D9"/>
   <sortState ref="B4:D9">
     <sortCondition ref="B4"/>
@@ -3053,7 +3119,7 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Tabela3101314151720" displayName="Tabela3101314151720" ref="B13:D14" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65" headerRowBorderDxfId="64" totalsRowBorderDxfId="63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Tabela3101314151720" displayName="Tabela3101314151720" ref="B13:D14" totalsRowShown="0" headerRowDxfId="66" dataDxfId="64" headerRowBorderDxfId="65" totalsRowBorderDxfId="63">
   <autoFilter ref="B13:D14"/>
   <sortState ref="B14:D19">
     <sortCondition ref="B4"/>
@@ -3068,7 +3134,7 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Tabela310131415172021" displayName="Tabela310131415172021" ref="B19:D23" totalsRowShown="0" headerRowDxfId="61" dataDxfId="58" headerRowBorderDxfId="60" totalsRowBorderDxfId="59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Tabela310131415172021" displayName="Tabela310131415172021" ref="B19:D23" totalsRowShown="0" headerRowDxfId="61" dataDxfId="59" headerRowBorderDxfId="60" totalsRowBorderDxfId="58">
   <autoFilter ref="B19:D23"/>
   <sortState ref="B20:D25">
     <sortCondition ref="B4"/>
@@ -3083,22 +3149,22 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Tabela310131415172022" displayName="Tabela310131415172022" ref="B28:D30" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51" headerRowBorderDxfId="54" totalsRowBorderDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Tabela310131415172022" displayName="Tabela310131415172022" ref="B28:D30" totalsRowShown="0" headerRowDxfId="54" dataDxfId="52" headerRowBorderDxfId="53" totalsRowBorderDxfId="51">
   <autoFilter ref="B28:D30"/>
   <sortState ref="B29:D34">
     <sortCondition ref="B4"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" name="Nome:" dataDxfId="50"/>
-    <tableColumn id="2" name="Endereço de E-mail:" dataDxfId="48"/>
-    <tableColumn id="3" name="Telefone de contato:" dataDxfId="49"/>
+    <tableColumn id="2" name="Endereço de E-mail:" dataDxfId="49"/>
+    <tableColumn id="3" name="Telefone de contato:" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Tabela31013141517202223" displayName="Tabela31013141517202223" ref="B34:D43" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46" headerRowBorderDxfId="45" totalsRowBorderDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Tabela31013141517202223" displayName="Tabela31013141517202223" ref="B34:D43" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" totalsRowBorderDxfId="44">
   <autoFilter ref="B34:D43"/>
   <sortState ref="B35:D44">
     <sortCondition ref="B35"/>
@@ -3113,18 +3179,18 @@
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="Tabela27" displayName="Tabela27" ref="G23:H28" totalsRowShown="0" headerRowBorderDxfId="22" tableBorderDxfId="23" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="Tabela27" displayName="Tabela27" ref="G23:H28" totalsRowShown="0" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
   <autoFilter ref="G23:H28"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Dias da Semana" dataDxfId="20"/>
-    <tableColumn id="2" name="Total de Pessoas" dataDxfId="19"/>
+    <tableColumn id="1" name="Dias da Semana" dataDxfId="3"/>
+    <tableColumn id="2" name="Total de Pessoas" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Tabela3101314151720222325" displayName="Tabela3101314151720222325" ref="B3:D9" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40" headerRowBorderDxfId="39" totalsRowBorderDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Tabela3101314151720222325" displayName="Tabela3101314151720222325" ref="B3:D9" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40" totalsRowBorderDxfId="38">
   <autoFilter ref="B3:D9"/>
   <sortState ref="B4:D9">
     <sortCondition ref="B4"/>
@@ -3139,37 +3205,37 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="Tabela310131415172022232526" displayName="Tabela310131415172022232526" ref="B13:D17" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29" headerRowBorderDxfId="28" totalsRowBorderDxfId="27" headerRowCellStyle="Moeda [0]" dataCellStyle="Moeda [0]">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="Tabela310131415172022232526" displayName="Tabela310131415172022232526" ref="B13:D17" totalsRowShown="0" headerRowDxfId="35" dataDxfId="33" headerRowBorderDxfId="34" totalsRowBorderDxfId="32">
   <autoFilter ref="B13:D17"/>
   <sortState ref="B14:D17">
     <sortCondition ref="D17"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" name="Nome:"/>
-    <tableColumn id="2" name="Endereço de E-mail:" dataDxfId="26"/>
-    <tableColumn id="3" name="Telefone de contato:" dataDxfId="24"/>
+    <tableColumn id="2" name="Endereço de E-mail:" dataDxfId="31"/>
+    <tableColumn id="3" name="Telefone de contato:" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Tabela31013141517202223252627" displayName="Tabela31013141517202223252627" ref="B21:D25" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34" headerRowBorderDxfId="33" totalsRowBorderDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Tabela31013141517202223252627" displayName="Tabela31013141517202223252627" ref="B21:D25" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" totalsRowBorderDxfId="26">
   <autoFilter ref="B21:D25"/>
   <sortState ref="B26:D30">
     <sortCondition ref="B22"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" name="Nome:"/>
-    <tableColumn id="2" name="Endereço de E-mail:" dataDxfId="31"/>
-    <tableColumn id="3" name="Telefone de contato:" dataDxfId="25"/>
+    <tableColumn id="2" name="Endereço de E-mail:" dataDxfId="25"/>
+    <tableColumn id="3" name="Telefone de contato:" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabela358" displayName="Tabela358" ref="B9:D11" totalsRowShown="0" headerRowDxfId="117" dataDxfId="116" headerRowBorderDxfId="114" tableBorderDxfId="115" totalsRowBorderDxfId="113">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabela358" displayName="Tabela358" ref="B9:D11" totalsRowShown="0" headerRowDxfId="117" dataDxfId="115" headerRowBorderDxfId="116" tableBorderDxfId="114" totalsRowBorderDxfId="113">
   <autoFilter ref="B9:D11"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Nome:" dataDxfId="112"/>
@@ -3181,74 +3247,74 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="Tabela28" displayName="Tabela28" ref="G14:H17" totalsRowShown="0" tableBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="Tabela28" displayName="Tabela28" ref="G14:H17" totalsRowShown="0" tableBorderDxfId="1">
   <autoFilter ref="G14:H17"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Dias da Semana"/>
-    <tableColumn id="2" name="Total de Pessoas" dataDxfId="17"/>
+    <tableColumn id="2" name="Total de Pessoas" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="Tabela273031" displayName="Tabela273031" ref="B16:C18" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="10" tableBorderDxfId="11" totalsRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="Tabela273031" displayName="Tabela273031" ref="B16:C18" totalsRowShown="0" headerRowDxfId="23" headerRowBorderDxfId="21" tableBorderDxfId="22" totalsRowBorderDxfId="20">
   <autoFilter ref="B16:C18"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Dias da Semana" dataDxfId="7"/>
-    <tableColumn id="2" name="Total de Pessoas" dataDxfId="6"/>
+    <tableColumn id="1" name="Dias da Semana" dataDxfId="19"/>
+    <tableColumn id="2" name="Total de Pessoas" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabela310" displayName="Tabela310" ref="B3:D4" totalsRowShown="0" headerRowDxfId="96" dataDxfId="95">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabela310" displayName="Tabela310" ref="B3:D4" totalsRowShown="0" headerRowDxfId="109" dataDxfId="108">
   <autoFilter ref="B3:D4"/>
   <sortState ref="B4:D28">
     <sortCondition ref="B4"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="Nome:" dataDxfId="94"/>
-    <tableColumn id="2" name="Endereço de E-mail:" dataDxfId="93"/>
-    <tableColumn id="3" name="Telefone de contato:" dataDxfId="92"/>
+    <tableColumn id="1" name="Nome:" dataDxfId="107"/>
+    <tableColumn id="2" name="Endereço de E-mail:" dataDxfId="106"/>
+    <tableColumn id="3" name="Telefone de contato:" dataDxfId="105"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Tabela31013" displayName="Tabela31013" ref="B24:D27" totalsRowShown="0" headerRowDxfId="109" dataDxfId="108" headerRowBorderDxfId="106" tableBorderDxfId="107" totalsRowBorderDxfId="105">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Tabela31013" displayName="Tabela31013" ref="B24:D27" totalsRowShown="0" headerRowDxfId="104" dataDxfId="102" headerRowBorderDxfId="103" tableBorderDxfId="101" totalsRowBorderDxfId="100">
   <autoFilter ref="B24:D27"/>
   <sortState ref="B33:D37">
     <sortCondition ref="B4"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" name="Nome:"/>
-    <tableColumn id="2" name="Endereço de E-mail:" dataDxfId="104"/>
-    <tableColumn id="3" name="Telefone de contato:" dataDxfId="103"/>
+    <tableColumn id="2" name="Endereço de E-mail:" dataDxfId="99"/>
+    <tableColumn id="3" name="Telefone de contato:" dataDxfId="98"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tabela3101314" displayName="Tabela3101314" ref="B31:D43" totalsRowShown="0" headerRowDxfId="102" dataDxfId="101" headerRowBorderDxfId="100" totalsRowBorderDxfId="99">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tabela3101314" displayName="Tabela3101314" ref="B31:D43" totalsRowShown="0" headerRowDxfId="97" dataDxfId="95" headerRowBorderDxfId="96" totalsRowBorderDxfId="94">
   <autoFilter ref="B31:D43"/>
   <sortState ref="B49:D60">
     <sortCondition ref="B4"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" name="Nome:"/>
-    <tableColumn id="2" name="Endereço de E-mail:" dataDxfId="98"/>
-    <tableColumn id="3" name="Telefone de contato:" dataDxfId="97"/>
+    <tableColumn id="2" name="Endereço de E-mail:" dataDxfId="93"/>
+    <tableColumn id="3" name="Telefone de contato:" dataDxfId="92"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tabela310131415" displayName="Tabela310131415" ref="B52:D61" totalsRowShown="0" headerRowDxfId="91" dataDxfId="90" headerRowBorderDxfId="89" totalsRowBorderDxfId="88">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tabela310131415" displayName="Tabela310131415" ref="B52:D61" totalsRowShown="0" headerRowDxfId="91" dataDxfId="89" headerRowBorderDxfId="90" totalsRowBorderDxfId="88">
   <autoFilter ref="B52:D61"/>
   <sortState ref="B62:D70">
     <sortCondition ref="B34"/>
@@ -3263,27 +3329,27 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Tabela310131418" displayName="Tabela310131418" ref="B8:D20" totalsRowShown="0" headerRowDxfId="81" dataDxfId="80" headerRowBorderDxfId="79" totalsRowBorderDxfId="78">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Tabela310131418" displayName="Tabela310131418" ref="B8:D20" totalsRowShown="0" headerRowDxfId="85" dataDxfId="83" headerRowBorderDxfId="84" totalsRowBorderDxfId="82">
   <autoFilter ref="B8:D20"/>
   <sortState ref="B9:D26">
     <sortCondition ref="B9"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" name="Nome:"/>
-    <tableColumn id="2" name="Endereço de E-mail:" dataDxfId="77"/>
-    <tableColumn id="3" name="Telefone de contato:" dataDxfId="76"/>
+    <tableColumn id="2" name="Endereço de E-mail:" dataDxfId="81"/>
+    <tableColumn id="3" name="Telefone de contato:" dataDxfId="80"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Tabela18" displayName="Tabela18" ref="B47:D48" totalsRowShown="0" headerRowDxfId="69" headerRowBorderDxfId="74" tableBorderDxfId="75" totalsRowBorderDxfId="73">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Tabela18" displayName="Tabela18" ref="B47:D48" totalsRowShown="0" headerRowDxfId="79" headerRowBorderDxfId="78" tableBorderDxfId="77" totalsRowBorderDxfId="76">
   <autoFilter ref="B47:D48"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Nome:" dataDxfId="72"/>
-    <tableColumn id="2" name="Endereço de E-mail:" dataDxfId="71"/>
-    <tableColumn id="3" name="Telefone de contato:" dataDxfId="70"/>
+    <tableColumn id="1" name="Nome:" dataDxfId="75"/>
+    <tableColumn id="2" name="Endereço de E-mail:" dataDxfId="74"/>
+    <tableColumn id="3" name="Telefone de contato:" dataDxfId="73"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3576,10 +3642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D23"/>
+  <dimension ref="B2:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3594,11 +3660,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="14"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="50"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
@@ -3618,7 +3684,7 @@
       <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="13" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3629,7 +3695,7 @@
       <c r="C5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="14" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3639,14 +3705,14 @@
       <c r="D6" s="5"/>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="50"/>
     </row>
     <row r="9" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -3660,10 +3726,10 @@
       <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="19" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3671,22 +3737,25 @@
       <c r="B11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="19" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="71" t="s">
+      <c r="B16" s="47" t="s">
         <v>191</v>
       </c>
-      <c r="C16" s="72" t="s">
+      <c r="C16" s="74" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="D16" s="72" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="21" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>0</v>
       </c>
@@ -3694,45 +3763,53 @@
         <f>COUNTA(B4:B5)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="B18" s="63" t="s">
+      <c r="D17" s="76">
+        <f>SUM(C17:C18)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="B18" s="73" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="75">
         <f>COUNTA(B10:B11)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="2:3" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="B23" s="73" t="s">
-        <v>192</v>
-      </c>
-      <c r="C23" s="74">
-        <f>SUM(C17:C18)</f>
-        <v>4</v>
-      </c>
+      <c r="D18" s="76"/>
+    </row>
+    <row r="22" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="71"/>
+    </row>
+    <row r="23" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="70"/>
+      <c r="C23" s="71"/>
+    </row>
+    <row r="24" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="71"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B8:D8"/>
+    <mergeCell ref="D17:D18"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="3">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G61"/>
+  <dimension ref="B2:H61"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3747,20 +3824,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="22" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3771,16 +3848,16 @@
       <c r="C4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="23" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
     </row>
     <row r="8" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
@@ -3800,7 +3877,7 @@
       <c r="C9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="17" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3811,7 +3888,7 @@
       <c r="C10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="17" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3822,7 +3899,7 @@
       <c r="C11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="17" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3833,7 +3910,7 @@
       <c r="C12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="17" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3844,7 +3921,7 @@
       <c r="C13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="17" t="s">
         <v>55</v>
       </c>
     </row>
@@ -3855,7 +3932,7 @@
       <c r="C14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="17" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3866,7 +3943,7 @@
       <c r="C15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="17" t="s">
         <v>51</v>
       </c>
     </row>
@@ -3877,62 +3954,62 @@
       <c r="C16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="24" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="17" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="17" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="17" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="17" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="25" t="s">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="27"/>
-    </row>
-    <row r="24" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="53"/>
+      <c r="D23" s="54"/>
+    </row>
+    <row r="24" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6" t="s">
         <v>1</v>
       </c>
@@ -3943,90 +4020,101 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="F25" s="67" t="s">
+      <c r="F25" s="43" t="s">
         <v>191</v>
       </c>
-      <c r="G25" s="68" t="s">
+      <c r="G25" s="44" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="26" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H25" s="77" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="22"/>
+      <c r="D26" s="19"/>
       <c r="F26" t="s">
         <v>62</v>
       </c>
-      <c r="G26" s="65">
+      <c r="G26" s="41">
         <f>COUNTA(Tabela310[Nome:])</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H26" s="78">
+        <f>SUM(G26:G31)</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="F27" s="63" t="s">
+      <c r="F27" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="G27" s="65">
+      <c r="G27" s="41">
         <f>COUNTA(B9:B20)</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F28" s="64" t="s">
+      <c r="H27" s="78"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F28" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="G28" s="65">
+      <c r="G28" s="41">
         <f>COUNTA(B24:B26)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F29" s="64" t="s">
+      <c r="H28" s="78"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F29" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="G29" s="65">
+      <c r="G29" s="41">
         <f>COUNTA(B32:B43)</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="25" t="s">
+      <c r="H29" s="78"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="26"/>
-      <c r="D30" s="27"/>
-      <c r="F30" s="32" t="s">
+      <c r="C30" s="53"/>
+      <c r="D30" s="54"/>
+      <c r="F30" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="G30" s="66">
+      <c r="G30" s="42">
         <f>COUNTA(B48:B49)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H30" s="78"/>
+    </row>
+    <row r="31" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="6" t="s">
         <v>1</v>
       </c>
@@ -4036,22 +4124,23 @@
       <c r="D31" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="32" t="s">
+      <c r="F31" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="G31" s="66">
+      <c r="G31" s="42">
         <f>COUNTA(B53:B61)</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="32" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H31" s="78"/>
+    </row>
+    <row r="32" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D32" s="22" t="s">
+      <c r="D32" s="19" t="s">
         <v>94</v>
       </c>
     </row>
@@ -4062,7 +4151,7 @@
       <c r="C33" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D33" s="22" t="s">
+      <c r="D33" s="19" t="s">
         <v>88</v>
       </c>
     </row>
@@ -4073,7 +4162,7 @@
       <c r="C34" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D34" s="22" t="s">
+      <c r="D34" s="19" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4084,7 +4173,7 @@
       <c r="C35" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D35" s="22" t="s">
+      <c r="D35" s="19" t="s">
         <v>92</v>
       </c>
     </row>
@@ -4095,7 +4184,7 @@
       <c r="C36" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D36" s="21">
+      <c r="D36" s="18">
         <v>992638183</v>
       </c>
     </row>
@@ -4106,7 +4195,7 @@
       <c r="C37" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D37" s="22" t="s">
+      <c r="D37" s="19" t="s">
         <v>90</v>
       </c>
     </row>
@@ -4117,7 +4206,7 @@
       <c r="C38" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D38" s="22" t="s">
+      <c r="D38" s="19" t="s">
         <v>96</v>
       </c>
     </row>
@@ -4128,7 +4217,7 @@
       <c r="C39" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D39" s="22" t="s">
+      <c r="D39" s="19" t="s">
         <v>97</v>
       </c>
     </row>
@@ -4139,7 +4228,7 @@
       <c r="C40" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D40" s="22" t="s">
+      <c r="D40" s="19" t="s">
         <v>89</v>
       </c>
     </row>
@@ -4150,7 +4239,7 @@
       <c r="C41" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D41" s="22" t="s">
+      <c r="D41" s="19" t="s">
         <v>98</v>
       </c>
     </row>
@@ -4161,7 +4250,7 @@
       <c r="C42" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="22" t="s">
+      <c r="D42" s="19" t="s">
         <v>91</v>
       </c>
     </row>
@@ -4172,45 +4261,45 @@
       <c r="C43" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D43" s="22" t="s">
+      <c r="D43" s="19" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="33" t="s">
+      <c r="B46" s="58" t="s">
         <v>131</v>
       </c>
-      <c r="C46" s="34"/>
-      <c r="D46" s="35"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="60"/>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47" s="42" t="s">
+      <c r="B47" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C47" s="43" t="s">
+      <c r="C47" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D47" s="44" t="s">
+      <c r="D47" s="28" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="45" t="s">
+      <c r="B48" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="C48" s="46" t="s">
+      <c r="C48" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D48" s="47" t="s">
+      <c r="D48" s="31" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B51" s="39" t="s">
+      <c r="B51" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="C51" s="40"/>
-      <c r="D51" s="41"/>
+      <c r="C51" s="56"/>
+      <c r="D51" s="57"/>
     </row>
     <row r="52" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="6" t="s">
@@ -4230,7 +4319,7 @@
       <c r="C53" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D53" s="30" t="s">
+      <c r="D53" s="24" t="s">
         <v>122</v>
       </c>
     </row>
@@ -4241,7 +4330,7 @@
       <c r="C54" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D54" s="30" t="s">
+      <c r="D54" s="24" t="s">
         <v>123</v>
       </c>
     </row>
@@ -4252,7 +4341,7 @@
       <c r="C55" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D55" s="30" t="s">
+      <c r="D55" s="24" t="s">
         <v>126</v>
       </c>
     </row>
@@ -4263,7 +4352,7 @@
       <c r="C56" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D56" s="30" t="s">
+      <c r="D56" s="24" t="s">
         <v>121</v>
       </c>
     </row>
@@ -4274,7 +4363,7 @@
       <c r="C57" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D57" s="30" t="s">
+      <c r="D57" s="24" t="s">
         <v>128</v>
       </c>
     </row>
@@ -4285,7 +4374,7 @@
       <c r="C58" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D58" s="30" t="s">
+      <c r="D58" s="24" t="s">
         <v>124</v>
       </c>
     </row>
@@ -4296,7 +4385,7 @@
       <c r="C59" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D59" s="30" t="s">
+      <c r="D59" s="24" t="s">
         <v>127</v>
       </c>
     </row>
@@ -4307,7 +4396,7 @@
       <c r="C60" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D60" s="30" t="s">
+      <c r="D60" s="24" t="s">
         <v>125</v>
       </c>
     </row>
@@ -4318,12 +4407,13 @@
       <c r="C61" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D61" s="30" t="s">
+      <c r="D61" s="24" t="s">
         <v>120</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="H26:H31"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B30:D30"/>
@@ -4332,16 +4422,16 @@
     <mergeCell ref="B46:D46"/>
   </mergeCells>
   <conditionalFormatting sqref="B32:D43">
-    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:D27">
-    <cfRule type="duplicateValues" dxfId="4" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53:D61">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:D20">
-    <cfRule type="duplicateValues" dxfId="2" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="13"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <tableParts count="7">
@@ -4358,10 +4448,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H43"/>
+  <dimension ref="B2:I43"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4371,14 +4461,15 @@
     <col min="3" max="3" width="60.140625" customWidth="1"/>
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="58" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="35"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="60"/>
     </row>
     <row r="3" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
@@ -4398,7 +4489,7 @@
       <c r="C4" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="24" t="s">
         <v>146</v>
       </c>
     </row>
@@ -4409,7 +4500,7 @@
       <c r="C5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="24" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4420,7 +4511,7 @@
       <c r="C6" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="24" t="s">
         <v>145</v>
       </c>
     </row>
@@ -4431,7 +4522,7 @@
       <c r="C7" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="24" t="s">
         <v>144</v>
       </c>
     </row>
@@ -4442,7 +4533,7 @@
       <c r="C8" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="24" t="s">
         <v>143</v>
       </c>
     </row>
@@ -4453,16 +4544,16 @@
       <c r="C9" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="24" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="61" t="s">
         <v>100</v>
       </c>
-      <c r="C12" s="50"/>
-      <c r="D12" s="51"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="63"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
@@ -4482,18 +4573,18 @@
       <c r="C14" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="21" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="49" t="s">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="50"/>
-      <c r="D18" s="51"/>
-    </row>
-    <row r="19" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="62"/>
+      <c r="D18" s="63"/>
+    </row>
+    <row r="19" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
         <v>1</v>
       </c>
@@ -4504,152 +4595,163 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="23" t="s">
+    <row r="20" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="19" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="23" t="s">
+    <row r="21" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="19" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="23" t="s">
+    <row r="22" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="19" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="23" t="s">
+    <row r="23" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="G23" s="67" t="s">
+      <c r="G23" s="43" t="s">
         <v>191</v>
       </c>
-      <c r="H23" s="68" t="s">
+      <c r="H23" s="44" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G24" s="63" t="s">
+      <c r="I23" s="77" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G24" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="H24" s="65">
+      <c r="H24" s="41">
         <f>COUNTA(B4:B9)</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G25" s="64" t="s">
+      <c r="I24" s="79">
+        <f>SUM(H24:H28)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G25" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="H25" s="65">
+      <c r="H25" s="41">
         <f>COUNTA(B14:B15)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G26" s="64" t="s">
+      <c r="I25" s="79"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G26" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="H26" s="65">
+      <c r="H26" s="41">
         <f>COUNTA(B20:B23)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="25" t="s">
+      <c r="I26" s="79"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="C27" s="26"/>
-      <c r="D27" s="27"/>
-      <c r="G27" s="64" t="s">
+      <c r="C27" s="53"/>
+      <c r="D27" s="54"/>
+      <c r="G27" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="H27" s="65">
+      <c r="H27" s="41">
         <f>COUNTA(B29:B30)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="52" t="s">
+      <c r="I27" s="79"/>
+    </row>
+    <row r="28" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="53" t="s">
+      <c r="C28" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="54" t="s">
+      <c r="D28" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="G28" s="32" t="s">
+      <c r="G28" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="H28" s="66">
+      <c r="H28" s="42">
         <f>COUNTA(B35:B43)</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="29" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="23" t="s">
+      <c r="I28" s="79"/>
+    </row>
+    <row r="29" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="D29" s="30" t="s">
+      <c r="D29" s="24" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="30" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="23" t="s">
+    <row r="30" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="24" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="C33" s="26"/>
-      <c r="D33" s="27"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="54"/>
     </row>
     <row r="34" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="52" t="s">
+      <c r="B34" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="53" t="s">
+      <c r="C34" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="54" t="s">
+      <c r="D34" s="35" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4660,7 +4762,7 @@
       <c r="C35" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D35" s="30"/>
+      <c r="D35" s="24"/>
     </row>
     <row r="36" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
@@ -4669,7 +4771,7 @@
       <c r="C36" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D36" s="30" t="s">
+      <c r="D36" s="24" t="s">
         <v>123</v>
       </c>
     </row>
@@ -4680,7 +4782,7 @@
       <c r="C37" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D37" s="30" t="s">
+      <c r="D37" s="24" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4691,7 +4793,7 @@
       <c r="C38" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D38" s="30" t="s">
+      <c r="D38" s="24" t="s">
         <v>55</v>
       </c>
     </row>
@@ -4702,7 +4804,7 @@
       <c r="C39" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D39" s="30" t="s">
+      <c r="D39" s="24" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4713,7 +4815,7 @@
       <c r="C40" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D40" s="30" t="s">
+      <c r="D40" s="24" t="s">
         <v>175</v>
       </c>
     </row>
@@ -4724,7 +4826,7 @@
       <c r="C41" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D41" s="30" t="s">
+      <c r="D41" s="24" t="s">
         <v>124</v>
       </c>
     </row>
@@ -4735,7 +4837,7 @@
       <c r="C42" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D42" s="30" t="s">
+      <c r="D42" s="24" t="s">
         <v>61</v>
       </c>
     </row>
@@ -4746,12 +4848,13 @@
       <c r="C43" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D43" s="30" t="s">
+      <c r="D43" s="24" t="s">
         <v>174</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="I24:I28"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B18:D18"/>
@@ -4759,10 +4862,10 @@
     <mergeCell ref="B33:D33"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:D9">
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:D43">
-    <cfRule type="duplicateValues" dxfId="0" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <tableParts count="6">
@@ -4780,8 +4883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4793,162 +4896,171 @@
     <col min="6" max="6" width="9.85546875" customWidth="1"/>
     <col min="7" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="27"/>
-    </row>
-    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="52" t="s">
+      <c r="C2" s="53"/>
+      <c r="D2" s="54"/>
+    </row>
+    <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="35" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="24" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>170</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="24" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>172</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="24" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>176</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="24" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="24" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="24" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="55" t="s">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="57"/>
-    </row>
-    <row r="13" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="52" t="s">
+      <c r="C12" s="65"/>
+      <c r="D12" s="66"/>
+    </row>
+    <row r="13" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="54" t="s">
+      <c r="D13" s="35" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="G14" s="69" t="s">
+      <c r="G14" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="H14" s="70" t="s">
+      <c r="H14" s="46" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="15" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I14" s="81" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>134</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="G15" s="59" t="s">
+      <c r="G15" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="H15" s="58">
+      <c r="H15" s="41">
         <f>COUNTA(B4:B9)</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I15" s="80">
+        <f>SUM(H14:H15)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="G16" s="48" t="s">
+      <c r="G16" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="H16" s="58">
+      <c r="H16" s="41">
         <f>COUNTA(B14:B17)</f>
         <v>4</v>
       </c>
+      <c r="I16" s="80"/>
     </row>
     <row r="17" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
@@ -4957,37 +5069,38 @@
       <c r="C17" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="G17" s="60" t="s">
+      <c r="G17" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="H17" s="61">
+      <c r="H17" s="42">
         <f>COUNTA(B22:B25)</f>
         <v>4</v>
       </c>
+      <c r="I17" s="80"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G18" s="5"/>
-      <c r="H18" s="62"/>
+      <c r="H18" s="38"/>
       <c r="I18" s="5"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="67" t="s">
         <v>101</v>
       </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="38"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="69"/>
     </row>
     <row r="21" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="52" t="s">
+      <c r="B21" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="53" t="s">
+      <c r="C21" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="54" t="s">
+      <c r="D21" s="35" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4998,7 +5111,7 @@
       <c r="C22" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="24" t="s">
         <v>187</v>
       </c>
     </row>
@@ -5009,7 +5122,7 @@
       <c r="C23" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="24" t="s">
         <v>189</v>
       </c>
     </row>
@@ -5020,7 +5133,7 @@
       <c r="C24" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D24" s="30" t="s">
+      <c r="D24" s="24" t="s">
         <v>188</v>
       </c>
     </row>
@@ -5031,15 +5144,16 @@
       <c r="C25" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D25" s="30" t="s">
+      <c r="D25" s="24" t="s">
         <v>95</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B20:D20"/>
+    <mergeCell ref="I15:I17"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <tableParts count="4">

--- a/Horários-Esportes.xlsx
+++ b/Horários-Esportes.xlsx
@@ -1163,6 +1163,20 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1171,6 +1185,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1202,6 +1222,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1229,30 +1252,7 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1285,289 +1285,6 @@
           <color theme="8" tint="-0.249977111117893"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="8" tint="-0.249977111117893"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="-0.249977111117893"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="-0.249977111117893"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="8" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="-0.249977111117893"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="-0.249977111117893"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="8" tint="-0.249977111117893"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="8" tint="-0.249977111117893"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="8" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="-0.249977111117893"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="-0.249977111117893"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="8" tint="-0.249977111117893"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="-0.249977111117893"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="-0.249977111117893"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="8" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="-0.249977111117893"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="-0.249977111117893"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="8" tint="-0.249977111117893"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="8" tint="-0.249977111117893"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="8" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="-0.249977111117893"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="-0.249977111117893"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color theme="8" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="-0.249977111117893"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="-0.249977111117893"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="8" tint="-0.249977111117893"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="8" tint="-0.249977111117893"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="8" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="8" tint="-0.249977111117893"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="-0.249977111117893"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
@@ -1753,6 +1470,69 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8" tint="-0.249977111117893"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="8" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="8" tint="-0.249977111117893"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="8" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="8" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2142,6 +1922,89 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8" tint="-0.249977111117893"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="8" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="8" tint="-0.249977111117893"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="8" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="8" tint="-0.249977111117893"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -2749,6 +2612,143 @@
           <color indexed="64"/>
         </horizontal>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="8" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="8" tint="-0.249977111117893"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="8" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="8" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="8" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
@@ -3093,33 +3093,33 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="Tabela2730" displayName="Tabela2730" ref="F25:G31" totalsRowShown="0" headerRowBorderDxfId="10" tableBorderDxfId="11" totalsRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="Tabela2730" displayName="Tabela2730" ref="F25:G31" totalsRowShown="0" headerRowBorderDxfId="62" tableBorderDxfId="61" totalsRowBorderDxfId="60">
   <autoFilter ref="F25:G31"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Dias da Semana" dataDxfId="8"/>
-    <tableColumn id="2" name="Total de Pessoas" dataDxfId="7"/>
+    <tableColumn id="1" name="Dias da Semana" dataDxfId="59"/>
+    <tableColumn id="2" name="Total de Pessoas" dataDxfId="58"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Tabela31013141517" displayName="Tabela31013141517" ref="B3:D9" totalsRowShown="0" headerRowDxfId="72" dataDxfId="70" headerRowBorderDxfId="71" totalsRowBorderDxfId="69">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Tabela31013141517" displayName="Tabela31013141517" ref="B3:D9" totalsRowShown="0" headerRowDxfId="55" dataDxfId="53" headerRowBorderDxfId="54" totalsRowBorderDxfId="52">
   <autoFilter ref="B3:D9"/>
   <sortState ref="B4:D9">
     <sortCondition ref="B4"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" name="Nome:"/>
-    <tableColumn id="2" name="Endereço de E-mail:" dataDxfId="68"/>
-    <tableColumn id="3" name="Telefone de contato:" dataDxfId="67"/>
+    <tableColumn id="2" name="Endereço de E-mail:" dataDxfId="51"/>
+    <tableColumn id="3" name="Telefone de contato:" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Tabela3101314151720" displayName="Tabela3101314151720" ref="B13:D14" totalsRowShown="0" headerRowDxfId="66" dataDxfId="64" headerRowBorderDxfId="65" totalsRowBorderDxfId="63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Tabela3101314151720" displayName="Tabela3101314151720" ref="B13:D14" totalsRowShown="0" headerRowDxfId="49" dataDxfId="47" headerRowBorderDxfId="48" totalsRowBorderDxfId="46">
   <autoFilter ref="B13:D14"/>
   <sortState ref="B14:D19">
     <sortCondition ref="B4"/>
@@ -3127,108 +3127,108 @@
   <tableColumns count="3">
     <tableColumn id="1" name="Nome:"/>
     <tableColumn id="2" name="Endereço de E-mail:"/>
-    <tableColumn id="3" name="Telefone de contato:" dataDxfId="62"/>
+    <tableColumn id="3" name="Telefone de contato:" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Tabela310131415172021" displayName="Tabela310131415172021" ref="B19:D23" totalsRowShown="0" headerRowDxfId="61" dataDxfId="59" headerRowBorderDxfId="60" totalsRowBorderDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Tabela310131415172021" displayName="Tabela310131415172021" ref="B19:D23" totalsRowShown="0" headerRowDxfId="44" dataDxfId="42" headerRowBorderDxfId="43" totalsRowBorderDxfId="41">
   <autoFilter ref="B19:D23"/>
   <sortState ref="B20:D25">
     <sortCondition ref="B4"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="Nome:" dataDxfId="57"/>
-    <tableColumn id="2" name="Endereço de E-mail:" dataDxfId="56"/>
-    <tableColumn id="3" name="Telefone de contato:" dataDxfId="55"/>
+    <tableColumn id="1" name="Nome:" dataDxfId="40"/>
+    <tableColumn id="2" name="Endereço de E-mail:" dataDxfId="39"/>
+    <tableColumn id="3" name="Telefone de contato:" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Tabela310131415172022" displayName="Tabela310131415172022" ref="B28:D30" totalsRowShown="0" headerRowDxfId="54" dataDxfId="52" headerRowBorderDxfId="53" totalsRowBorderDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Tabela310131415172022" displayName="Tabela310131415172022" ref="B28:D30" totalsRowShown="0" headerRowDxfId="37" dataDxfId="35" headerRowBorderDxfId="36" totalsRowBorderDxfId="34">
   <autoFilter ref="B28:D30"/>
   <sortState ref="B29:D34">
     <sortCondition ref="B4"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="Nome:" dataDxfId="50"/>
-    <tableColumn id="2" name="Endereço de E-mail:" dataDxfId="49"/>
-    <tableColumn id="3" name="Telefone de contato:" dataDxfId="48"/>
+    <tableColumn id="1" name="Nome:" dataDxfId="33"/>
+    <tableColumn id="2" name="Endereço de E-mail:" dataDxfId="32"/>
+    <tableColumn id="3" name="Telefone de contato:" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Tabela31013141517202223" displayName="Tabela31013141517202223" ref="B34:D43" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" totalsRowBorderDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Tabela31013141517202223" displayName="Tabela31013141517202223" ref="B34:D43" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" totalsRowBorderDxfId="27">
   <autoFilter ref="B34:D43"/>
   <sortState ref="B35:D44">
     <sortCondition ref="B35"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" name="Nome:"/>
-    <tableColumn id="2" name="Endereço de E-mail:" dataDxfId="43"/>
-    <tableColumn id="3" name="Telefone de contato:" dataDxfId="42"/>
+    <tableColumn id="2" name="Endereço de E-mail:" dataDxfId="26"/>
+    <tableColumn id="3" name="Telefone de contato:" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="Tabela27" displayName="Tabela27" ref="G23:H28" totalsRowShown="0" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="Tabela27" displayName="Tabela27" ref="G23:H28" totalsRowShown="0" headerRowBorderDxfId="24" tableBorderDxfId="23" totalsRowBorderDxfId="22">
   <autoFilter ref="G23:H28"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Dias da Semana" dataDxfId="3"/>
-    <tableColumn id="2" name="Total de Pessoas" dataDxfId="2"/>
+    <tableColumn id="1" name="Dias da Semana" dataDxfId="21"/>
+    <tableColumn id="2" name="Total de Pessoas" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Tabela3101314151720222325" displayName="Tabela3101314151720222325" ref="B3:D9" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40" totalsRowBorderDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Tabela3101314151720222325" displayName="Tabela3101314151720222325" ref="B3:D9" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" totalsRowBorderDxfId="16">
   <autoFilter ref="B3:D9"/>
   <sortState ref="B4:D9">
     <sortCondition ref="B4"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" name="Nome:"/>
-    <tableColumn id="2" name="Endereço de E-mail:" dataDxfId="37"/>
-    <tableColumn id="3" name="Telefone de contato:" dataDxfId="36"/>
+    <tableColumn id="2" name="Endereço de E-mail:" dataDxfId="15"/>
+    <tableColumn id="3" name="Telefone de contato:" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="Tabela310131415172022232526" displayName="Tabela310131415172022232526" ref="B13:D17" totalsRowShown="0" headerRowDxfId="35" dataDxfId="33" headerRowBorderDxfId="34" totalsRowBorderDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="Tabela310131415172022232526" displayName="Tabela310131415172022232526" ref="B13:D17" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" totalsRowBorderDxfId="10">
   <autoFilter ref="B13:D17"/>
   <sortState ref="B14:D17">
     <sortCondition ref="D17"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" name="Nome:"/>
-    <tableColumn id="2" name="Endereço de E-mail:" dataDxfId="31"/>
-    <tableColumn id="3" name="Telefone de contato:" dataDxfId="30"/>
+    <tableColumn id="2" name="Endereço de E-mail:" dataDxfId="9"/>
+    <tableColumn id="3" name="Telefone de contato:" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Tabela31013141517202223252627" displayName="Tabela31013141517202223252627" ref="B21:D25" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Tabela31013141517202223252627" displayName="Tabela31013141517202223252627" ref="B21:D25" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" totalsRowBorderDxfId="4">
   <autoFilter ref="B21:D25"/>
   <sortState ref="B26:D30">
     <sortCondition ref="B22"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" name="Nome:"/>
-    <tableColumn id="2" name="Endereço de E-mail:" dataDxfId="25"/>
-    <tableColumn id="3" name="Telefone de contato:" dataDxfId="24"/>
+    <tableColumn id="2" name="Endereço de E-mail:" dataDxfId="3"/>
+    <tableColumn id="3" name="Telefone de contato:" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3258,98 +3258,98 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="Tabela273031" displayName="Tabela273031" ref="B16:C18" totalsRowShown="0" headerRowDxfId="23" headerRowBorderDxfId="21" tableBorderDxfId="22" totalsRowBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="Tabela273031" displayName="Tabela273031" ref="B16:C18" totalsRowShown="0" headerRowDxfId="109" headerRowBorderDxfId="108" tableBorderDxfId="107" totalsRowBorderDxfId="106">
   <autoFilter ref="B16:C18"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Dias da Semana" dataDxfId="19"/>
-    <tableColumn id="2" name="Total de Pessoas" dataDxfId="12"/>
+    <tableColumn id="1" name="Dias da Semana" dataDxfId="105"/>
+    <tableColumn id="2" name="Total de Pessoas" dataDxfId="104"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabela310" displayName="Tabela310" ref="B3:D4" totalsRowShown="0" headerRowDxfId="109" dataDxfId="108">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabela310" displayName="Tabela310" ref="B3:D4" totalsRowShown="0" headerRowDxfId="99" dataDxfId="98">
   <autoFilter ref="B3:D4"/>
   <sortState ref="B4:D28">
     <sortCondition ref="B4"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="Nome:" dataDxfId="107"/>
-    <tableColumn id="2" name="Endereço de E-mail:" dataDxfId="106"/>
-    <tableColumn id="3" name="Telefone de contato:" dataDxfId="105"/>
+    <tableColumn id="1" name="Nome:" dataDxfId="97"/>
+    <tableColumn id="2" name="Endereço de E-mail:" dataDxfId="96"/>
+    <tableColumn id="3" name="Telefone de contato:" dataDxfId="95"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Tabela31013" displayName="Tabela31013" ref="B24:D27" totalsRowShown="0" headerRowDxfId="104" dataDxfId="102" headerRowBorderDxfId="103" tableBorderDxfId="101" totalsRowBorderDxfId="100">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Tabela31013" displayName="Tabela31013" ref="B24:D27" totalsRowShown="0" headerRowDxfId="94" dataDxfId="92" headerRowBorderDxfId="93" tableBorderDxfId="91" totalsRowBorderDxfId="90">
   <autoFilter ref="B24:D27"/>
   <sortState ref="B33:D37">
     <sortCondition ref="B4"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" name="Nome:"/>
-    <tableColumn id="2" name="Endereço de E-mail:" dataDxfId="99"/>
-    <tableColumn id="3" name="Telefone de contato:" dataDxfId="98"/>
+    <tableColumn id="2" name="Endereço de E-mail:" dataDxfId="89"/>
+    <tableColumn id="3" name="Telefone de contato:" dataDxfId="88"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tabela3101314" displayName="Tabela3101314" ref="B31:D43" totalsRowShown="0" headerRowDxfId="97" dataDxfId="95" headerRowBorderDxfId="96" totalsRowBorderDxfId="94">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tabela3101314" displayName="Tabela3101314" ref="B31:D43" totalsRowShown="0" headerRowDxfId="87" dataDxfId="85" headerRowBorderDxfId="86" totalsRowBorderDxfId="84">
   <autoFilter ref="B31:D43"/>
   <sortState ref="B49:D60">
     <sortCondition ref="B4"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" name="Nome:"/>
-    <tableColumn id="2" name="Endereço de E-mail:" dataDxfId="93"/>
-    <tableColumn id="3" name="Telefone de contato:" dataDxfId="92"/>
+    <tableColumn id="2" name="Endereço de E-mail:" dataDxfId="83"/>
+    <tableColumn id="3" name="Telefone de contato:" dataDxfId="82"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tabela310131415" displayName="Tabela310131415" ref="B52:D61" totalsRowShown="0" headerRowDxfId="91" dataDxfId="89" headerRowBorderDxfId="90" totalsRowBorderDxfId="88">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tabela310131415" displayName="Tabela310131415" ref="B52:D61" totalsRowShown="0" headerRowDxfId="81" dataDxfId="79" headerRowBorderDxfId="80" totalsRowBorderDxfId="78">
   <autoFilter ref="B52:D61"/>
   <sortState ref="B62:D70">
     <sortCondition ref="B34"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" name="Nome:"/>
-    <tableColumn id="2" name="Endereço de E-mail:" dataDxfId="87"/>
-    <tableColumn id="3" name="Telefone de contato:" dataDxfId="86"/>
+    <tableColumn id="2" name="Endereço de E-mail:" dataDxfId="77"/>
+    <tableColumn id="3" name="Telefone de contato:" dataDxfId="76"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Tabela310131418" displayName="Tabela310131418" ref="B8:D20" totalsRowShown="0" headerRowDxfId="85" dataDxfId="83" headerRowBorderDxfId="84" totalsRowBorderDxfId="82">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Tabela310131418" displayName="Tabela310131418" ref="B8:D20" totalsRowShown="0" headerRowDxfId="75" dataDxfId="73" headerRowBorderDxfId="74" totalsRowBorderDxfId="72">
   <autoFilter ref="B8:D20"/>
   <sortState ref="B9:D26">
     <sortCondition ref="B9"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" name="Nome:"/>
-    <tableColumn id="2" name="Endereço de E-mail:" dataDxfId="81"/>
-    <tableColumn id="3" name="Telefone de contato:" dataDxfId="80"/>
+    <tableColumn id="2" name="Endereço de E-mail:" dataDxfId="71"/>
+    <tableColumn id="3" name="Telefone de contato:" dataDxfId="70"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Tabela18" displayName="Tabela18" ref="B47:D48" totalsRowShown="0" headerRowDxfId="79" headerRowBorderDxfId="78" tableBorderDxfId="77" totalsRowBorderDxfId="76">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Tabela18" displayName="Tabela18" ref="B47:D48" totalsRowShown="0" headerRowDxfId="69" headerRowBorderDxfId="68" tableBorderDxfId="67" totalsRowBorderDxfId="66">
   <autoFilter ref="B47:D48"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Nome:" dataDxfId="75"/>
-    <tableColumn id="2" name="Endereço de E-mail:" dataDxfId="74"/>
-    <tableColumn id="3" name="Telefone de contato:" dataDxfId="73"/>
+    <tableColumn id="1" name="Nome:" dataDxfId="65"/>
+    <tableColumn id="2" name="Endereço de E-mail:" dataDxfId="64"/>
+    <tableColumn id="3" name="Telefone de contato:" dataDxfId="63"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3660,11 +3660,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="50"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="58"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
@@ -3705,11 +3705,11 @@
       <c r="D6" s="5"/>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="50"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="58"/>
     </row>
     <row r="9" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="12" t="s">
@@ -3748,10 +3748,10 @@
       <c r="B16" s="47" t="s">
         <v>191</v>
       </c>
-      <c r="C16" s="74" t="s">
+      <c r="C16" s="52" t="s">
         <v>190</v>
       </c>
-      <c r="D16" s="72" t="s">
+      <c r="D16" s="50" t="s">
         <v>192</v>
       </c>
     </row>
@@ -3759,34 +3759,34 @@
       <c r="B17" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="75">
+      <c r="C17" s="53">
         <f>COUNTA(B4:B5)</f>
         <v>2</v>
       </c>
-      <c r="D17" s="76">
+      <c r="D17" s="59">
         <f>SUM(C17:C18)</f>
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="B18" s="73" t="s">
+      <c r="B18" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="75">
+      <c r="C18" s="53">
         <f>COUNTA(B10:B11)</f>
         <v>2</v>
       </c>
-      <c r="D18" s="76"/>
+      <c r="D18" s="59"/>
     </row>
     <row r="22" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="71"/>
+      <c r="C22" s="49"/>
     </row>
     <row r="23" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="70"/>
-      <c r="C23" s="71"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="49"/>
     </row>
     <row r="24" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="71"/>
+      <c r="C24" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3808,7 +3808,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H61"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
@@ -3824,11 +3824,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="22" t="s">
@@ -3853,11 +3853,11 @@
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="61" t="s">
         <v>129</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
     </row>
     <row r="8" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
@@ -4003,11 +4003,11 @@
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="52" t="s">
+      <c r="B23" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="C23" s="53"/>
-      <c r="D23" s="54"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="64"/>
     </row>
     <row r="24" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6" t="s">
@@ -4036,7 +4036,7 @@
       <c r="G25" s="44" t="s">
         <v>190</v>
       </c>
-      <c r="H25" s="77" t="s">
+      <c r="H25" s="54" t="s">
         <v>192</v>
       </c>
     </row>
@@ -4055,7 +4055,7 @@
         <f>COUNTA(Tabela310[Nome:])</f>
         <v>1</v>
       </c>
-      <c r="H26" s="78">
+      <c r="H26" s="60">
         <f>SUM(G26:G31)</f>
         <v>38</v>
       </c>
@@ -4077,7 +4077,7 @@
         <f>COUNTA(B9:B20)</f>
         <v>12</v>
       </c>
-      <c r="H27" s="78"/>
+      <c r="H27" s="60"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F28" s="40" t="s">
@@ -4087,7 +4087,7 @@
         <f>COUNTA(B24:B26)</f>
         <v>3</v>
       </c>
-      <c r="H28" s="78"/>
+      <c r="H28" s="60"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F29" s="40" t="s">
@@ -4097,14 +4097,14 @@
         <f>COUNTA(B32:B43)</f>
         <v>12</v>
       </c>
-      <c r="H29" s="78"/>
+      <c r="H29" s="60"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="52" t="s">
+      <c r="B30" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="53"/>
-      <c r="D30" s="54"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="64"/>
       <c r="F30" s="25" t="s">
         <v>131</v>
       </c>
@@ -4112,7 +4112,7 @@
         <f>COUNTA(B48:B49)</f>
         <v>1</v>
       </c>
-      <c r="H30" s="78"/>
+      <c r="H30" s="60"/>
     </row>
     <row r="31" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="6" t="s">
@@ -4131,7 +4131,7 @@
         <f>COUNTA(B53:B61)</f>
         <v>9</v>
       </c>
-      <c r="H31" s="78"/>
+      <c r="H31" s="60"/>
     </row>
     <row r="32" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
@@ -4266,11 +4266,11 @@
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="58" t="s">
+      <c r="B46" s="68" t="s">
         <v>131</v>
       </c>
-      <c r="C46" s="59"/>
-      <c r="D46" s="60"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="70"/>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" s="26" t="s">
@@ -4295,11 +4295,11 @@
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B51" s="55" t="s">
+      <c r="B51" s="65" t="s">
         <v>101</v>
       </c>
-      <c r="C51" s="56"/>
-      <c r="D51" s="57"/>
+      <c r="C51" s="66"/>
+      <c r="D51" s="67"/>
     </row>
     <row r="52" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="6" t="s">
@@ -4413,25 +4413,25 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B46:D46"/>
     <mergeCell ref="H26:H31"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B46:D46"/>
   </mergeCells>
   <conditionalFormatting sqref="B32:D43">
-    <cfRule type="duplicateValues" dxfId="18" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:D27">
-    <cfRule type="duplicateValues" dxfId="17" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53:D61">
-    <cfRule type="duplicateValues" dxfId="16" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:D20">
-    <cfRule type="duplicateValues" dxfId="15" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="13"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <tableParts count="7">
@@ -4465,11 +4465,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="68" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="60"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="70"/>
     </row>
     <row r="3" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
@@ -4549,11 +4549,11 @@
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="72" t="s">
         <v>100</v>
       </c>
-      <c r="C12" s="62"/>
-      <c r="D12" s="63"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="74"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
@@ -4578,11 +4578,11 @@
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="61" t="s">
+      <c r="B18" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="62"/>
-      <c r="D18" s="63"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="74"/>
     </row>
     <row r="19" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
@@ -4644,7 +4644,7 @@
       <c r="H23" s="44" t="s">
         <v>190</v>
       </c>
-      <c r="I23" s="77" t="s">
+      <c r="I23" s="54" t="s">
         <v>192</v>
       </c>
     </row>
@@ -4656,7 +4656,7 @@
         <f>COUNTA(B4:B9)</f>
         <v>6</v>
       </c>
-      <c r="I24" s="79">
+      <c r="I24" s="71">
         <f>SUM(H24:H28)</f>
         <v>22</v>
       </c>
@@ -4669,7 +4669,7 @@
         <f>COUNTA(B14:B15)</f>
         <v>1</v>
       </c>
-      <c r="I25" s="79"/>
+      <c r="I25" s="71"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G26" s="40" t="s">
@@ -4679,14 +4679,14 @@
         <f>COUNTA(B20:B23)</f>
         <v>4</v>
       </c>
-      <c r="I26" s="79"/>
+      <c r="I26" s="71"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="52" t="s">
+      <c r="B27" s="62" t="s">
         <v>131</v>
       </c>
-      <c r="C27" s="53"/>
-      <c r="D27" s="54"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="64"/>
       <c r="G27" s="40" t="s">
         <v>131</v>
       </c>
@@ -4694,7 +4694,7 @@
         <f>COUNTA(B29:B30)</f>
         <v>2</v>
       </c>
-      <c r="I27" s="79"/>
+      <c r="I27" s="71"/>
     </row>
     <row r="28" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="33" t="s">
@@ -4713,7 +4713,7 @@
         <f>COUNTA(B35:B43)</f>
         <v>9</v>
       </c>
-      <c r="I28" s="79"/>
+      <c r="I28" s="71"/>
     </row>
     <row r="29" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="20" t="s">
@@ -4738,11 +4738,11 @@
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="52" t="s">
+      <c r="B33" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="C33" s="53"/>
-      <c r="D33" s="54"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="64"/>
     </row>
     <row r="34" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="33" t="s">
@@ -4854,18 +4854,18 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B33:D33"/>
     <mergeCell ref="I24:I28"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B33:D33"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:D9">
-    <cfRule type="duplicateValues" dxfId="14" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:D43">
-    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="14"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <tableParts count="6">
@@ -4884,7 +4884,7 @@
   <dimension ref="B2:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4900,11 +4900,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="54"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="64"/>
     </row>
     <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="33" t="s">
@@ -4984,11 +4984,11 @@
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="65"/>
-      <c r="D12" s="66"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="77"/>
     </row>
     <row r="13" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="33" t="s">
@@ -5017,7 +5017,7 @@
       <c r="H14" s="46" t="s">
         <v>190</v>
       </c>
-      <c r="I14" s="81" t="s">
+      <c r="I14" s="55" t="s">
         <v>192</v>
       </c>
     </row>
@@ -5038,9 +5038,9 @@
         <f>COUNTA(B4:B9)</f>
         <v>6</v>
       </c>
-      <c r="I15" s="80">
-        <f>SUM(H14:H15)</f>
-        <v>6</v>
+      <c r="I15" s="81">
+        <f>SUM(H14:H17)</f>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5060,7 +5060,7 @@
         <f>COUNTA(B14:B17)</f>
         <v>4</v>
       </c>
-      <c r="I16" s="80"/>
+      <c r="I16" s="81"/>
     </row>
     <row r="17" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
@@ -5079,7 +5079,7 @@
         <f>COUNTA(B22:B25)</f>
         <v>4</v>
       </c>
-      <c r="I17" s="80"/>
+      <c r="I17" s="81"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G18" s="5"/>
@@ -5087,11 +5087,11 @@
       <c r="I18" s="5"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="67" t="s">
+      <c r="B20" s="78" t="s">
         <v>101</v>
       </c>
-      <c r="C20" s="68"/>
-      <c r="D20" s="69"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="80"/>
     </row>
     <row r="21" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="33" t="s">
